--- a/Config/Excel/Server/SceneConfig.xlsx
+++ b/Config/Excel/Server/SceneConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Temp\Fantasy\examples\Config\Excel\Server\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sining/Code/Git/Fantasy/Examples/Config/Excel/Server/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AFE7BAC-442D-4854-A62B-7F293E07CD6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB51F0C2-94D7-F44A-9968-B9D5D88CA370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38400" yWindow="-900" windowWidth="38400" windowHeight="19400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SceneConfig" sheetId="8" r:id="rId1"/>
@@ -51,8 +51,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <family val="2"/>
-            <charset val="134"/>
+            <charset val="1"/>
           </rPr>
           <t>由于改表格使用了公式。</t>
         </r>
@@ -62,8 +61,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <family val="2"/>
-            <charset val="134"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -74,8 +72,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <family val="2"/>
-            <charset val="134"/>
+            <charset val="1"/>
           </rPr>
           <t>所以不要改动列的位置。</t>
         </r>
@@ -84,8 +81,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <family val="2"/>
-            <charset val="134"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -100,8 +96,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <family val="2"/>
-            <charset val="134"/>
+            <charset val="1"/>
           </rPr>
           <t>Id</t>
         </r>
@@ -111,8 +106,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <family val="2"/>
-            <charset val="134"/>
+            <charset val="1"/>
           </rPr>
           <t>计算规则</t>
         </r>
@@ -122,8 +116,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <family val="2"/>
-            <charset val="134"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">:
 </t>
@@ -134,8 +127,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <family val="2"/>
-            <charset val="134"/>
+            <charset val="1"/>
           </rPr>
           <t>1</t>
         </r>
@@ -145,8 +137,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <family val="2"/>
-            <charset val="134"/>
+            <charset val="1"/>
           </rPr>
           <t>：</t>
         </r>
@@ -156,8 +147,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <family val="2"/>
-            <charset val="134"/>
+            <charset val="1"/>
           </rPr>
           <t>Id</t>
         </r>
@@ -167,8 +157,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <family val="2"/>
-            <charset val="134"/>
+            <charset val="1"/>
           </rPr>
           <t>不能小于当前</t>
         </r>
@@ -178,8 +167,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <family val="2"/>
-            <charset val="134"/>
+            <charset val="1"/>
           </rPr>
           <t>WorldConfigId * 1000 +1</t>
         </r>
@@ -189,8 +177,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <family val="2"/>
-            <charset val="134"/>
+            <charset val="1"/>
           </rPr>
           <t>。</t>
         </r>
@@ -200,8 +187,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <family val="2"/>
-            <charset val="134"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -212,8 +198,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <family val="2"/>
-            <charset val="134"/>
+            <charset val="1"/>
           </rPr>
           <t>2:  Id</t>
         </r>
@@ -223,8 +208,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <family val="2"/>
-            <charset val="134"/>
+            <charset val="1"/>
           </rPr>
           <t>不能大于当前</t>
         </r>
@@ -234,8 +218,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <family val="2"/>
-            <charset val="134"/>
+            <charset val="1"/>
           </rPr>
           <t>WorldConfigId * 1000 +255</t>
         </r>
@@ -245,8 +228,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <family val="2"/>
-            <charset val="134"/>
+            <charset val="1"/>
           </rPr>
           <t>。</t>
         </r>
@@ -256,8 +238,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <family val="2"/>
-            <charset val="134"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -268,8 +249,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <family val="2"/>
-            <charset val="134"/>
+            <charset val="1"/>
           </rPr>
           <t>3</t>
         </r>
@@ -279,8 +259,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <family val="2"/>
-            <charset val="134"/>
+            <charset val="1"/>
           </rPr>
           <t>：</t>
         </r>
@@ -290,8 +269,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <family val="2"/>
-            <charset val="134"/>
+            <charset val="1"/>
           </rPr>
           <t>Id</t>
         </r>
@@ -301,8 +279,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <family val="2"/>
-            <charset val="134"/>
+            <charset val="1"/>
           </rPr>
           <t>必须在</t>
         </r>
@@ -312,8 +289,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <family val="2"/>
-            <charset val="134"/>
+            <charset val="1"/>
           </rPr>
           <t>1</t>
         </r>
@@ -323,8 +299,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <family val="2"/>
-            <charset val="134"/>
+            <charset val="1"/>
           </rPr>
           <t>和</t>
         </r>
@@ -334,8 +309,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <family val="2"/>
-            <charset val="134"/>
+            <charset val="1"/>
           </rPr>
           <t>2</t>
         </r>
@@ -345,8 +319,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <family val="2"/>
-            <charset val="134"/>
+            <charset val="1"/>
           </rPr>
           <t>条件之间。</t>
         </r>
@@ -360,8 +333,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <family val="2"/>
-            <charset val="134"/>
+            <charset val="1"/>
           </rPr>
           <t>ProcessConfig</t>
         </r>
@@ -371,8 +343,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <family val="2"/>
-            <charset val="134"/>
+            <charset val="1"/>
           </rPr>
           <t>表的</t>
         </r>
@@ -382,8 +353,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <family val="2"/>
-            <charset val="134"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Id
 </t>
@@ -394,8 +364,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <family val="2"/>
-            <charset val="134"/>
+            <charset val="1"/>
           </rPr>
           <t>一个进程下有多少个</t>
         </r>
@@ -405,8 +374,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <family val="2"/>
-            <charset val="134"/>
+            <charset val="1"/>
           </rPr>
           <t>Scene</t>
         </r>
@@ -420,8 +388,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <family val="2"/>
-            <charset val="134"/>
+            <charset val="1"/>
           </rPr>
           <t>关联</t>
         </r>
@@ -431,8 +398,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <family val="2"/>
-            <charset val="134"/>
+            <charset val="1"/>
           </rPr>
           <t>WorldConfig</t>
         </r>
@@ -442,8 +408,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <family val="2"/>
-            <charset val="134"/>
+            <charset val="1"/>
           </rPr>
           <t>表（</t>
         </r>
@@ -453,8 +418,7 @@
             <sz val="10"/>
             <color rgb="FFFF0000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <family val="2"/>
-            <charset val="134"/>
+            <charset val="1"/>
           </rPr>
           <t>不能为空）</t>
         </r>
@@ -464,8 +428,7 @@
             <sz val="10"/>
             <color rgb="FFFF0000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <family val="2"/>
-            <charset val="134"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -476,8 +439,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <family val="2"/>
-            <charset val="134"/>
+            <charset val="1"/>
           </rPr>
           <t>用于表示这个</t>
         </r>
@@ -487,8 +449,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <family val="2"/>
-            <charset val="134"/>
+            <charset val="1"/>
           </rPr>
           <t>Scene</t>
         </r>
@@ -498,8 +459,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <family val="2"/>
-            <charset val="134"/>
+            <charset val="1"/>
           </rPr>
           <t>属于哪个世界，</t>
         </r>
@@ -509,8 +469,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <family val="2"/>
-            <charset val="134"/>
+            <charset val="1"/>
           </rPr>
           <t>Fantasy</t>
         </r>
@@ -520,8 +479,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <family val="2"/>
-            <charset val="134"/>
+            <charset val="1"/>
           </rPr>
           <t>里的世界可以理解为游戏的一个区。</t>
         </r>
@@ -531,8 +489,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <family val="2"/>
-            <charset val="134"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -543,8 +500,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <family val="2"/>
-            <charset val="134"/>
+            <charset val="1"/>
           </rPr>
           <t>这样就可以设置出一个进程下同时运行多个区，也是一个压缩服务器成本的一个手段</t>
         </r>
@@ -558,8 +514,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <family val="2"/>
-            <charset val="134"/>
+            <charset val="1"/>
           </rPr>
           <t>用于配置</t>
         </r>
@@ -569,8 +524,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <family val="2"/>
-            <charset val="134"/>
+            <charset val="1"/>
           </rPr>
           <t>Scene</t>
         </r>
@@ -580,8 +534,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <family val="2"/>
-            <charset val="134"/>
+            <charset val="1"/>
           </rPr>
           <t>在框架中运行的方式：</t>
         </r>
@@ -591,8 +544,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <family val="2"/>
-            <charset val="134"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -614,8 +566,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <family val="2"/>
-            <charset val="134"/>
+            <charset val="1"/>
           </rPr>
           <t>:</t>
         </r>
@@ -625,8 +576,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <family val="2"/>
-            <charset val="134"/>
+            <charset val="1"/>
           </rPr>
           <t>设置</t>
         </r>
@@ -636,8 +586,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <family val="2"/>
-            <charset val="134"/>
+            <charset val="1"/>
           </rPr>
           <t>Scene</t>
         </r>
@@ -647,8 +596,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <family val="2"/>
-            <charset val="134"/>
+            <charset val="1"/>
           </rPr>
           <t>在当前进程的主线程中运行、如果多个</t>
         </r>
@@ -658,8 +606,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <family val="2"/>
-            <charset val="134"/>
+            <charset val="1"/>
           </rPr>
           <t>Scene</t>
         </r>
@@ -669,8 +616,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <family val="2"/>
-            <charset val="134"/>
+            <charset val="1"/>
           </rPr>
           <t>在同一个</t>
         </r>
@@ -680,8 +626,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <family val="2"/>
-            <charset val="134"/>
+            <charset val="1"/>
           </rPr>
           <t>ProcessConfigId</t>
         </r>
@@ -691,8 +636,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <family val="2"/>
-            <charset val="134"/>
+            <charset val="1"/>
           </rPr>
           <t>下，表示这些</t>
         </r>
@@ -702,8 +646,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <family val="2"/>
-            <charset val="134"/>
+            <charset val="1"/>
           </rPr>
           <t>Scene</t>
         </r>
@@ -713,8 +656,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <family val="2"/>
-            <charset val="134"/>
+            <charset val="1"/>
           </rPr>
           <t>都是在同一个主线程中运行。如果想提升效率可以配置多个进程（也就是</t>
         </r>
@@ -724,8 +666,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <family val="2"/>
-            <charset val="134"/>
+            <charset val="1"/>
           </rPr>
           <t>Process</t>
         </r>
@@ -735,8 +676,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <family val="2"/>
-            <charset val="134"/>
+            <charset val="1"/>
           </rPr>
           <t>）分别对应多个</t>
         </r>
@@ -746,8 +686,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <family val="2"/>
-            <charset val="134"/>
+            <charset val="1"/>
           </rPr>
           <t>Scene</t>
         </r>
@@ -757,8 +696,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <family val="2"/>
-            <charset val="134"/>
+            <charset val="1"/>
           </rPr>
           <t>，这样设置就是多进程单线程的配置方法。</t>
         </r>
@@ -768,8 +706,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <family val="2"/>
-            <charset val="134"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -1048,8 +985,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <family val="2"/>
-            <charset val="134"/>
+            <charset val="1"/>
           </rPr>
           <t>用来表示这个</t>
         </r>
@@ -1059,8 +995,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <family val="2"/>
-            <charset val="134"/>
+            <charset val="1"/>
           </rPr>
           <t>Scene</t>
         </r>
@@ -1070,8 +1005,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <family val="2"/>
-            <charset val="134"/>
+            <charset val="1"/>
           </rPr>
           <t>是什么类型，这样可以在框架中的</t>
         </r>
@@ -1081,8 +1015,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <family val="2"/>
-            <charset val="134"/>
+            <charset val="1"/>
           </rPr>
           <t>OnSceneCreate</t>
         </r>
@@ -1092,8 +1025,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <family val="2"/>
-            <charset val="134"/>
+            <charset val="1"/>
           </rPr>
           <t>的事件中根据</t>
         </r>
@@ -1103,8 +1035,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <family val="2"/>
-            <charset val="134"/>
+            <charset val="1"/>
           </rPr>
           <t>SceneType</t>
         </r>
@@ -1114,8 +1045,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <family val="2"/>
-            <charset val="134"/>
+            <charset val="1"/>
           </rPr>
           <t>来添加不同的组件，而达到不同</t>
         </r>
@@ -1125,8 +1055,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <family val="2"/>
-            <charset val="134"/>
+            <charset val="1"/>
           </rPr>
           <t>Scene</t>
         </r>
@@ -1136,8 +1065,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <family val="2"/>
-            <charset val="134"/>
+            <charset val="1"/>
           </rPr>
           <t>功能不一样的效果。</t>
         </r>
@@ -1147,8 +1075,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <family val="2"/>
-            <charset val="134"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -1159,8 +1086,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <family val="2"/>
-            <charset val="134"/>
+            <charset val="1"/>
           </rPr>
           <t>比如鉴权</t>
         </r>
@@ -1170,8 +1096,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <family val="2"/>
-            <charset val="134"/>
+            <charset val="1"/>
           </rPr>
           <t>Scene</t>
         </r>
@@ -1181,8 +1106,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <family val="2"/>
-            <charset val="134"/>
+            <charset val="1"/>
           </rPr>
           <t>和聊天</t>
         </r>
@@ -1192,8 +1116,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <family val="2"/>
-            <charset val="134"/>
+            <charset val="1"/>
           </rPr>
           <t>Scene</t>
         </r>
@@ -1203,8 +1126,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <family val="2"/>
-            <charset val="134"/>
+            <charset val="1"/>
           </rPr>
           <t>、通过这个就可以知道当前这个</t>
         </r>
@@ -1214,8 +1136,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <family val="2"/>
-            <charset val="134"/>
+            <charset val="1"/>
           </rPr>
           <t>Scene</t>
         </r>
@@ -1225,8 +1146,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <family val="2"/>
-            <charset val="134"/>
+            <charset val="1"/>
           </rPr>
           <t>是什么类型了，这样在创建的时候根据不同类型添加不同的组件就可以实现每个的</t>
         </r>
@@ -1236,8 +1156,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <family val="2"/>
-            <charset val="134"/>
+            <charset val="1"/>
           </rPr>
           <t>Scene</t>
         </r>
@@ -1247,8 +1166,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <family val="2"/>
-            <charset val="134"/>
+            <charset val="1"/>
           </rPr>
           <t>功能了。</t>
         </r>
@@ -1258,8 +1176,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <family val="2"/>
-            <charset val="134"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -1270,8 +1187,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <family val="2"/>
-            <charset val="134"/>
+            <charset val="1"/>
           </rPr>
           <t>添加</t>
         </r>
@@ -1281,8 +1197,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <family val="2"/>
-            <charset val="134"/>
+            <charset val="1"/>
           </rPr>
           <t>SceneType</t>
         </r>
@@ -1292,8 +1207,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <family val="2"/>
-            <charset val="134"/>
+            <charset val="1"/>
           </rPr>
           <t>需要在</t>
         </r>
@@ -1303,8 +1217,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <family val="2"/>
-            <charset val="134"/>
+            <charset val="1"/>
           </rPr>
           <t>SceneTypeConfig</t>
         </r>
@@ -1314,8 +1227,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <family val="2"/>
-            <charset val="134"/>
+            <charset val="1"/>
           </rPr>
           <t>工作簿里增加，当前表格下面的</t>
         </r>
@@ -1360,8 +1272,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <family val="2"/>
-            <charset val="134"/>
+            <charset val="1"/>
           </rPr>
           <t>用于表示当前</t>
         </r>
@@ -1371,8 +1282,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <family val="2"/>
-            <charset val="134"/>
+            <charset val="1"/>
           </rPr>
           <t>Scene</t>
         </r>
@@ -1382,8 +1292,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <family val="2"/>
-            <charset val="134"/>
+            <charset val="1"/>
           </rPr>
           <t>对客户端的网络协议。</t>
         </r>
@@ -1393,8 +1302,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <family val="2"/>
-            <charset val="134"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -1405,8 +1313,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <family val="2"/>
-            <charset val="134"/>
+            <charset val="1"/>
           </rPr>
           <t>Fantasy</t>
         </r>
@@ -1416,8 +1323,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <family val="2"/>
-            <charset val="134"/>
+            <charset val="1"/>
           </rPr>
           <t>是以</t>
         </r>
@@ -1427,8 +1333,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <family val="2"/>
-            <charset val="134"/>
+            <charset val="1"/>
           </rPr>
           <t>Scene</t>
         </r>
@@ -1438,8 +1343,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <family val="2"/>
-            <charset val="134"/>
+            <charset val="1"/>
           </rPr>
           <t>为单位的，所以网络协议是在</t>
         </r>
@@ -1449,8 +1353,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <family val="2"/>
-            <charset val="134"/>
+            <charset val="1"/>
           </rPr>
           <t>Scene</t>
         </r>
@@ -1460,8 +1363,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <family val="2"/>
-            <charset val="134"/>
+            <charset val="1"/>
           </rPr>
           <t>里设置。</t>
         </r>
@@ -1471,8 +1373,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <family val="2"/>
-            <charset val="134"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -1483,8 +1384,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <family val="2"/>
-            <charset val="134"/>
+            <charset val="1"/>
           </rPr>
           <t>比如做一个注册的</t>
         </r>
@@ -1494,8 +1394,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <family val="2"/>
-            <charset val="134"/>
+            <charset val="1"/>
           </rPr>
           <t>Scene</t>
         </r>
@@ -1505,8 +1404,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <family val="2"/>
-            <charset val="134"/>
+            <charset val="1"/>
           </rPr>
           <t>，这里设置了协议类型和外网端口号、客户端就可以通过这个端口号来进行通讯。</t>
         </r>
@@ -1516,8 +1414,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <family val="2"/>
-            <charset val="134"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -1528,8 +1425,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <family val="2"/>
-            <charset val="134"/>
+            <charset val="1"/>
           </rPr>
           <t>外网通讯的地址是在</t>
         </r>
@@ -1539,8 +1435,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <family val="2"/>
-            <charset val="134"/>
+            <charset val="1"/>
           </rPr>
           <t>MachineConfig</t>
         </r>
@@ -1550,8 +1445,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <family val="2"/>
-            <charset val="134"/>
+            <charset val="1"/>
           </rPr>
           <t>里设置的、因为这个</t>
         </r>
@@ -1561,8 +1455,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <family val="2"/>
-            <charset val="134"/>
+            <charset val="1"/>
           </rPr>
           <t>Scene</t>
         </r>
@@ -1572,8 +1465,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <family val="2"/>
-            <charset val="134"/>
+            <charset val="1"/>
           </rPr>
           <t>是关联到</t>
         </r>
@@ -1583,8 +1475,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <family val="2"/>
-            <charset val="134"/>
+            <charset val="1"/>
           </rPr>
           <t>ServerConfig</t>
         </r>
@@ -1594,8 +1485,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <family val="2"/>
-            <charset val="134"/>
+            <charset val="1"/>
           </rPr>
           <t>下的，框架会自动根据</t>
         </r>
@@ -1653,8 +1543,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <family val="2"/>
-            <charset val="134"/>
+            <charset val="1"/>
           </rPr>
           <t>用来表示监听的外网连接的端口号，这里不填写或填</t>
         </r>
@@ -1664,8 +1553,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <family val="2"/>
-            <charset val="134"/>
+            <charset val="1"/>
           </rPr>
           <t>0.</t>
         </r>
@@ -1675,8 +1563,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <family val="2"/>
-            <charset val="134"/>
+            <charset val="1"/>
           </rPr>
           <t>表示不会建立监听，也就是不会接收到外网发送的消息</t>
         </r>
@@ -1690,8 +1577,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <family val="2"/>
-            <charset val="134"/>
+            <charset val="1"/>
           </rPr>
           <t>用来表示监听的内部网络连接的端口号，这里不填写或填</t>
         </r>
@@ -1701,8 +1587,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <family val="2"/>
-            <charset val="134"/>
+            <charset val="1"/>
           </rPr>
           <t>0.</t>
         </r>
@@ -1712,8 +1597,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <family val="2"/>
-            <charset val="134"/>
+            <charset val="1"/>
           </rPr>
           <t>表示不会建立监听，也就是不会接受内部网络发送的消息</t>
         </r>
@@ -1727,8 +1611,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <family val="2"/>
-            <charset val="134"/>
+            <charset val="1"/>
           </rPr>
           <t>根据</t>
         </r>
@@ -1738,8 +1621,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <family val="2"/>
-            <charset val="134"/>
+            <charset val="1"/>
           </rPr>
           <t>SceneTypeString</t>
         </r>
@@ -1749,8 +1631,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <family val="2"/>
-            <charset val="134"/>
+            <charset val="1"/>
           </rPr>
           <t>列的值使用公式自动生成的，不需要手动修改。如果要修改在</t>
         </r>
@@ -1760,8 +1641,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <family val="2"/>
-            <charset val="134"/>
+            <charset val="1"/>
           </rPr>
           <t>SceneTypeString</t>
         </r>
@@ -1771,8 +1651,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <family val="2"/>
-            <charset val="134"/>
+            <charset val="1"/>
           </rPr>
           <t>列选择就可以了</t>
         </r>
@@ -1783,7 +1662,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="53">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -1935,9 +1814,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>Gate</t>
-  </si>
-  <si>
     <t>MultiThread</t>
   </si>
   <si>
@@ -1975,6 +1851,17 @@
   </si>
   <si>
     <t>Map服务器</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chat</t>
+  </si>
+  <si>
+    <t>Chat</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chat服务器</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -2036,16 +1923,14 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Microsoft YaHei UI"/>
-      <family val="2"/>
-      <charset val="134"/>
+      <charset val="1"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Microsoft YaHei UI"/>
-      <family val="2"/>
-      <charset val="134"/>
+      <charset val="1"/>
     </font>
     <font>
       <b/>
@@ -2082,8 +1967,7 @@
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Microsoft YaHei UI"/>
-      <family val="2"/>
-      <charset val="134"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -2289,6 +2173,61 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8991599" y="3344333"/>
+          <a:ext cx="65" cy="172227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>736599</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="65" cy="172227"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="文本框 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E2C5344-9C68-FC45-9954-7B545347C977}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8991599" y="3547533"/>
           <a:ext cx="65" cy="172227"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2584,27 +2523,27 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.125" customWidth="1"/>
+    <col min="1" max="1" width="21.1640625" customWidth="1"/>
     <col min="3" max="3" width="51.5" customWidth="1"/>
     <col min="4" max="4" width="26.5" customWidth="1"/>
-    <col min="5" max="5" width="46.625" customWidth="1"/>
+    <col min="5" max="5" width="46.6640625" customWidth="1"/>
     <col min="6" max="6" width="162.5" customWidth="1"/>
-    <col min="7" max="7" width="84.375" customWidth="1"/>
+    <col min="7" max="7" width="84.33203125" customWidth="1"/>
     <col min="8" max="8" width="120" customWidth="1"/>
     <col min="9" max="10" width="21.5" customWidth="1"/>
-    <col min="11" max="11" width="21.625" customWidth="1"/>
-    <col min="12" max="12" width="21.125" customWidth="1"/>
+    <col min="11" max="11" width="21.6640625" customWidth="1"/>
+    <col min="12" max="12" width="21.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="80.099999999999994" customHeight="1">
+    <row r="1" spans="1:12" ht="80" customHeight="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2657,7 +2596,7 @@
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12" s="1" customFormat="1" ht="17.25">
+    <row r="3" spans="1:12" s="1" customFormat="1" ht="18">
       <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
@@ -2692,7 +2631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="1" customFormat="1" ht="17.25">
+    <row r="4" spans="1:12" s="1" customFormat="1" ht="18">
       <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
@@ -2700,7 +2639,7 @@
         <v>7</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>21</v>
@@ -2718,7 +2657,7 @@
         <v>9</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K4" s="5" t="s">
         <v>33</v>
@@ -2727,7 +2666,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="1" customFormat="1" ht="15.75">
+    <row r="5" spans="1:12" s="1" customFormat="1" ht="16">
       <c r="B5" s="4" t="s">
         <v>11</v>
       </c>
@@ -2735,7 +2674,7 @@
         <v>12</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>32</v>
@@ -2753,7 +2692,7 @@
         <v>14</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K5" s="4" t="s">
         <v>29</v>
@@ -2762,7 +2701,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="1" customFormat="1" ht="99.95" customHeight="1">
+    <row r="6" spans="1:12" s="1" customFormat="1" ht="100" customHeight="1">
       <c r="B6" s="5" t="s">
         <v>16</v>
       </c>
@@ -2777,7 +2716,7 @@
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
     </row>
-    <row r="7" spans="1:12" s="1" customFormat="1" ht="15.75">
+    <row r="7" spans="1:12" s="1" customFormat="1" ht="16">
       <c r="B7" s="6">
         <v>1</v>
       </c>
@@ -2791,10 +2730,10 @@
         <v>1</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
@@ -2806,10 +2745,10 @@
         <v>2</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="1" customFormat="1" ht="15.75">
+    <row r="8" spans="1:12" s="1" customFormat="1" ht="16">
       <c r="B8" s="6">
         <f>B7+1</f>
         <v>2</v>
@@ -2824,13 +2763,13 @@
         <v>1</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I8" s="7">
         <v>20000</v>
@@ -2843,10 +2782,10 @@
         <v>3</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="1" customFormat="1" ht="15.75">
+    <row r="9" spans="1:12" s="1" customFormat="1" ht="16">
       <c r="B9" s="6">
         <f>B8+1</f>
         <v>3</v>
@@ -2861,10 +2800,10 @@
         <v>1</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
@@ -2876,17 +2815,50 @@
         <v>4</v>
       </c>
       <c r="L9" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" s="1" customFormat="1" ht="16">
+      <c r="B10" s="6">
+        <f>B9+1</f>
+        <v>4</v>
+      </c>
+      <c r="C10" s="7">
+        <v>1004</v>
+      </c>
+      <c r="D10" s="7">
+        <v>1</v>
+      </c>
+      <c r="E10" s="7">
+        <v>1</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>50</v>
+      </c>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7">
+        <v>11004</v>
+      </c>
+      <c r="K10" s="7">
+        <f>INDEX(SceneTypeConfig!$A$3:$A$90000,MATCH(G10,SceneTypeConfig!$B$3:$B$90000,0))</f>
+        <v>8</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
   <dataConsolidate link="1"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H7:H9" xr:uid="{009323E0-4A49-F748-AC34-4C91C4113B8E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H7:H10" xr:uid="{009323E0-4A49-F748-AC34-4C91C4113B8E}">
       <formula1>"None,KCP,TCP,WebSocket"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F7:F9" xr:uid="{B7FFB07A-C960-504B-AD56-1016B3E6A224}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F7:F10" xr:uid="{B7FFB07A-C960-504B-AD56-1016B3E6A224}">
       <formula1>"MainThread,MultiThread,ThreadPool"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2901,7 +2873,7 @@
           <x14:formula1>
             <xm:f>SceneTypeConfig!$B$3:$B$1048576</xm:f>
           </x14:formula1>
-          <xm:sqref>G7:G9</xm:sqref>
+          <xm:sqref>G7:G10</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2911,21 +2883,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A4E656C-FB27-224C-BBD7-96AC8FAF4A12}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.5" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="21.125" customWidth="1"/>
+    <col min="3" max="3" width="21.1640625" customWidth="1"/>
     <col min="6" max="6" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" ht="15.75">
+    <row r="1" spans="1:3" s="1" customFormat="1" ht="16">
       <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
@@ -2936,7 +2908,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="1" customFormat="1" ht="15.75">
+    <row r="2" spans="1:3" s="1" customFormat="1" ht="16">
       <c r="A2" s="4" t="s">
         <v>12</v>
       </c>
@@ -2947,7 +2919,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="1" customFormat="1" ht="15.75">
+    <row r="3" spans="1:3" s="1" customFormat="1" ht="16">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -2958,7 +2930,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="1" customFormat="1" ht="15.75">
+    <row r="4" spans="1:3" s="1" customFormat="1" ht="16">
       <c r="A4" s="7">
         <v>2</v>
       </c>
@@ -2969,7 +2941,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="1" customFormat="1" ht="15.75">
+    <row r="5" spans="1:3" s="1" customFormat="1" ht="16">
       <c r="A5" s="7">
         <f>A4+1</f>
         <v>3</v>
@@ -2981,9 +2953,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="1" customFormat="1" ht="15.75">
+    <row r="6" spans="1:3" s="1" customFormat="1" ht="16">
       <c r="A6" s="7">
-        <f t="shared" ref="A6:A9" si="0">A5+1</f>
+        <f t="shared" ref="A6:A10" si="0">A5+1</f>
         <v>4</v>
       </c>
       <c r="B6" s="7" t="s">
@@ -2993,7 +2965,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:3" s="1" customFormat="1" ht="15.75">
+    <row r="7" spans="1:3" s="1" customFormat="1" ht="16">
       <c r="A7" s="7">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -3005,7 +2977,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="1" customFormat="1" ht="15.75">
+    <row r="8" spans="1:3" s="1" customFormat="1" ht="16">
       <c r="A8" s="7">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -3017,7 +2989,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="1" customFormat="1" ht="15.75">
+    <row r="9" spans="1:3" s="1" customFormat="1" ht="16">
       <c r="A9" s="7">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -3027,6 +2999,18 @@
       </c>
       <c r="C9" s="7" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" s="1" customFormat="1" ht="16">
+      <c r="A10" s="7">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Excel/Server/SceneConfig.xlsx
+++ b/Config/Excel/Server/SceneConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sining/Code/Git/Fantasy/Examples/Config/Excel/Server/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB51F0C2-94D7-F44A-9968-B9D5D88CA370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D48E799F-8ECE-9247-8D2A-2C5896EC4196}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-900" windowWidth="38400" windowHeight="19400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38400" yWindow="-900" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SceneConfig" sheetId="8" r:id="rId1"/>
@@ -1662,7 +1662,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="51">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -1814,6 +1814,9 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>Gate</t>
+  </si>
+  <si>
     <t>MultiThread</t>
   </si>
   <si>
@@ -1851,17 +1854,6 @@
   </si>
   <si>
     <t>Map服务器</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Chat</t>
-  </si>
-  <si>
-    <t>Chat</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Chat服务器</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -2206,61 +2198,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>736599</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="65" cy="172227"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="文本框 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E2C5344-9C68-FC45-9954-7B545347C977}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8991599" y="3547533"/>
-          <a:ext cx="65" cy="172227"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2523,10 +2460,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -2639,7 +2576,7 @@
         <v>7</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>21</v>
@@ -2657,7 +2594,7 @@
         <v>9</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K4" s="5" t="s">
         <v>33</v>
@@ -2674,7 +2611,7 @@
         <v>12</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>32</v>
@@ -2692,7 +2629,7 @@
         <v>14</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K5" s="4" t="s">
         <v>29</v>
@@ -2730,10 +2667,10 @@
         <v>1</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
@@ -2745,7 +2682,7 @@
         <v>2</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="1" customFormat="1" ht="16">
@@ -2763,13 +2700,13 @@
         <v>1</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>23</v>
-      </c>
       <c r="H8" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I8" s="7">
         <v>20000</v>
@@ -2782,7 +2719,7 @@
         <v>3</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:12" s="1" customFormat="1" ht="16">
@@ -2800,10 +2737,10 @@
         <v>1</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
@@ -2815,50 +2752,17 @@
         <v>4</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" s="1" customFormat="1" ht="16">
-      <c r="B10" s="6">
-        <f>B9+1</f>
-        <v>4</v>
-      </c>
-      <c r="C10" s="7">
-        <v>1004</v>
-      </c>
-      <c r="D10" s="7">
-        <v>1</v>
-      </c>
-      <c r="E10" s="7">
-        <v>1</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G10" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7">
-        <v>11004</v>
-      </c>
-      <c r="K10" s="7">
-        <f>INDEX(SceneTypeConfig!$A$3:$A$90000,MATCH(G10,SceneTypeConfig!$B$3:$B$90000,0))</f>
-        <v>8</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>52</v>
       </c>
     </row>
   </sheetData>
   <dataConsolidate link="1"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H7:H10" xr:uid="{009323E0-4A49-F748-AC34-4C91C4113B8E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H7:H9" xr:uid="{009323E0-4A49-F748-AC34-4C91C4113B8E}">
       <formula1>"None,KCP,TCP,WebSocket"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F7:F10" xr:uid="{B7FFB07A-C960-504B-AD56-1016B3E6A224}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F7:F9" xr:uid="{B7FFB07A-C960-504B-AD56-1016B3E6A224}">
       <formula1>"MainThread,MultiThread,ThreadPool"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2873,7 +2777,7 @@
           <x14:formula1>
             <xm:f>SceneTypeConfig!$B$3:$B$1048576</xm:f>
           </x14:formula1>
-          <xm:sqref>G7:G10</xm:sqref>
+          <xm:sqref>G7:G9</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2883,10 +2787,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A4E656C-FB27-224C-BBD7-96AC8FAF4A12}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -2955,7 +2859,7 @@
     </row>
     <row r="6" spans="1:3" s="1" customFormat="1" ht="16">
       <c r="A6" s="7">
-        <f t="shared" ref="A6:A10" si="0">A5+1</f>
+        <f t="shared" ref="A6:A9" si="0">A5+1</f>
         <v>4</v>
       </c>
       <c r="B6" s="7" t="s">
@@ -2999,18 +2903,6 @@
       </c>
       <c r="C9" s="7" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" s="1" customFormat="1" ht="16">
-      <c r="A10" s="7">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>51</v>
       </c>
     </row>
   </sheetData>
